--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H2">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I2">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J2">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>2818.112194463656</v>
+        <v>3531.581370435247</v>
       </c>
       <c r="R2">
-        <v>25363.0097501729</v>
+        <v>31784.23233391722</v>
       </c>
       <c r="S2">
-        <v>0.01241685947127874</v>
+        <v>0.01659403593449282</v>
       </c>
       <c r="T2">
-        <v>0.01241685947127874</v>
+        <v>0.01659403593449282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H3">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I3">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J3">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>2970.394645595975</v>
+        <v>3821.109071156957</v>
       </c>
       <c r="R3">
-        <v>26733.55181036377</v>
+        <v>34389.98164041261</v>
       </c>
       <c r="S3">
-        <v>0.01308782984618667</v>
+        <v>0.01795445569149676</v>
       </c>
       <c r="T3">
-        <v>0.01308782984618667</v>
+        <v>0.01795445569149676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H4">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I4">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J4">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>1919.139608541314</v>
+        <v>1647.230022555504</v>
       </c>
       <c r="R4">
-        <v>17272.25647687183</v>
+        <v>14825.07020299953</v>
       </c>
       <c r="S4">
-        <v>0.008455904229731232</v>
+        <v>0.007739930450276633</v>
       </c>
       <c r="T4">
-        <v>0.008455904229731234</v>
+        <v>0.007739930450276633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H5">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I5">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J5">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>1028.257872479139</v>
+        <v>1293.524321304417</v>
       </c>
       <c r="R5">
-        <v>9254.320852312248</v>
+        <v>11641.71889173975</v>
       </c>
       <c r="S5">
-        <v>0.004530598010928194</v>
+        <v>0.006077953986720833</v>
       </c>
       <c r="T5">
-        <v>0.004530598010928194</v>
+        <v>0.006077953986720832</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H6">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I6">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J6">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>1496.880939538797</v>
+        <v>1544.44958243043</v>
       </c>
       <c r="R6">
-        <v>13471.92845584917</v>
+        <v>13900.04624187387</v>
       </c>
       <c r="S6">
-        <v>0.006595394004540811</v>
+        <v>0.007256990334249159</v>
       </c>
       <c r="T6">
-        <v>0.006595394004540811</v>
+        <v>0.007256990334249159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J7">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>56766.6646625991</v>
+        <v>55300.49703593421</v>
       </c>
       <c r="R7">
-        <v>510899.9819633919</v>
+        <v>497704.4733234079</v>
       </c>
       <c r="S7">
-        <v>0.2501191042547715</v>
+        <v>0.259843491839609</v>
       </c>
       <c r="T7">
-        <v>0.2501191042547715</v>
+        <v>0.259843491839609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J8">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>59834.16738815053</v>
@@ -948,10 +948,10 @@
         <v>538507.5064933548</v>
       </c>
       <c r="S8">
-        <v>0.2636348011620005</v>
+        <v>0.2811460984762927</v>
       </c>
       <c r="T8">
-        <v>0.2636348011620005</v>
+        <v>0.2811460984762927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J9">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>38658.20346429131</v>
+        <v>25793.72508373093</v>
       </c>
       <c r="R9">
-        <v>347923.8311786218</v>
+        <v>232143.5257535783</v>
       </c>
       <c r="S9">
-        <v>0.1703315718839088</v>
+        <v>0.121198396986421</v>
       </c>
       <c r="T9">
-        <v>0.1703315718839089</v>
+        <v>0.121198396986421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I10">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J10">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>20712.72036236656</v>
+        <v>20255.10115526171</v>
       </c>
       <c r="R10">
-        <v>186414.483261299</v>
+        <v>182295.9103973554</v>
       </c>
       <c r="S10">
-        <v>0.09126213587686745</v>
+        <v>0.09517375961969576</v>
       </c>
       <c r="T10">
-        <v>0.09126213587686746</v>
+        <v>0.09517375961969578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I11">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J11">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>30152.43271774965</v>
+        <v>24184.30176077683</v>
       </c>
       <c r="R11">
-        <v>271371.8944597468</v>
+        <v>217658.7158469915</v>
       </c>
       <c r="S11">
-        <v>0.1328543698540506</v>
+        <v>0.1136361109582728</v>
       </c>
       <c r="T11">
-        <v>0.1328543698540506</v>
+        <v>0.1136361109582728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H12">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>6.964635280050667</v>
+        <v>24.58222308522312</v>
       </c>
       <c r="R12">
-        <v>62.681717520456</v>
+        <v>221.240007767008</v>
       </c>
       <c r="S12">
-        <v>3.068681854150165E-05</v>
+        <v>0.0001155058458063046</v>
       </c>
       <c r="T12">
-        <v>3.068681854150165E-05</v>
+        <v>0.0001155058458063046</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H13">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>7.340983579374</v>
+        <v>26.597534013091</v>
       </c>
       <c r="R13">
-        <v>66.068852214366</v>
+        <v>239.377806117819</v>
       </c>
       <c r="S13">
-        <v>3.23450434887316E-05</v>
+        <v>0.0001249752982833671</v>
       </c>
       <c r="T13">
-        <v>3.23450434887316E-05</v>
+        <v>0.000124975298283367</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H14">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>4.742929487068667</v>
+        <v>11.46584819653922</v>
       </c>
       <c r="R14">
-        <v>42.686365383618</v>
+        <v>103.192633768853</v>
       </c>
       <c r="S14">
-        <v>2.089778009506261E-05</v>
+        <v>5.387521255651051E-05</v>
       </c>
       <c r="T14">
-        <v>2.089778009506262E-05</v>
+        <v>5.38752125565105E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H15">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>2.541219284926667</v>
+        <v>9.003814466420778</v>
       </c>
       <c r="R15">
-        <v>22.87097356434</v>
+        <v>81.034330197787</v>
       </c>
       <c r="S15">
-        <v>1.119684404638944E-05</v>
+        <v>4.230671903926112E-05</v>
       </c>
       <c r="T15">
-        <v>1.119684404638945E-05</v>
+        <v>4.230671903926111E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H16">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>3.699366484424667</v>
+        <v>10.75042599811467</v>
       </c>
       <c r="R16">
-        <v>33.294298359822</v>
+        <v>96.75383398303201</v>
       </c>
       <c r="S16">
-        <v>1.629974628409067E-05</v>
+        <v>5.051361886129634E-05</v>
       </c>
       <c r="T16">
-        <v>1.629974628409067E-05</v>
+        <v>5.051361886129634E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H17">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I17">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J17">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>2902.080235453107</v>
+        <v>4609.994894104974</v>
       </c>
       <c r="R17">
-        <v>26118.72211907796</v>
+        <v>41489.95404694477</v>
       </c>
       <c r="S17">
-        <v>0.01278683032165613</v>
+        <v>0.02166123696625413</v>
       </c>
       <c r="T17">
-        <v>0.01278683032165612</v>
+        <v>0.02166123696625413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H18">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I18">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J18">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>3058.900071265771</v>
+        <v>4987.933579930736</v>
       </c>
       <c r="R18">
-        <v>27530.10064139194</v>
+        <v>44891.40221937662</v>
       </c>
       <c r="S18">
-        <v>0.01347779282748548</v>
+        <v>0.02343707828938772</v>
       </c>
       <c r="T18">
-        <v>0.01347779282748548</v>
+        <v>0.02343707828938772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H19">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I19">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J19">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>1976.321999516044</v>
+        <v>2150.232770216876</v>
       </c>
       <c r="R19">
-        <v>17786.8979956444</v>
+        <v>19352.09493195189</v>
       </c>
       <c r="S19">
-        <v>0.008707855062050768</v>
+        <v>0.01010341717033846</v>
       </c>
       <c r="T19">
-        <v>0.008707855062050768</v>
+        <v>0.01010341717033846</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H20">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I20">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J20">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>1058.895687167168</v>
+        <v>1688.518510867284</v>
       </c>
       <c r="R20">
-        <v>9530.061184504517</v>
+        <v>15196.66659780555</v>
       </c>
       <c r="S20">
-        <v>0.004665591018032635</v>
+        <v>0.007933934944824673</v>
       </c>
       <c r="T20">
-        <v>0.004665591018032635</v>
+        <v>0.007933934944824673</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H21">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I21">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J21">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>1541.481775635546</v>
+        <v>2016.067008624341</v>
       </c>
       <c r="R21">
-        <v>13873.33598071991</v>
+        <v>18144.60307761907</v>
       </c>
       <c r="S21">
-        <v>0.006791909358046906</v>
+        <v>0.009473005115364135</v>
       </c>
       <c r="T21">
-        <v>0.006791909358046906</v>
+        <v>0.009473005115364136</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H22">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>10.62741809857511</v>
+        <v>24.31237677085511</v>
       </c>
       <c r="R22">
-        <v>95.646762887176</v>
+        <v>218.811390937696</v>
       </c>
       <c r="S22">
-        <v>4.682537385550969E-05</v>
+        <v>0.0001142379040635772</v>
       </c>
       <c r="T22">
-        <v>4.682537385550968E-05</v>
+        <v>0.0001142379040635772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H23">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>11.201692352254</v>
+        <v>26.305565036167</v>
       </c>
       <c r="R23">
-        <v>100.815231170286</v>
+        <v>236.750085325503</v>
       </c>
       <c r="S23">
-        <v>4.935567861765255E-05</v>
+        <v>0.0001236034075673853</v>
       </c>
       <c r="T23">
-        <v>4.935567861765254E-05</v>
+        <v>0.0001236034075673853</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H24">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>7.237291350419778</v>
+        <v>11.33998419855122</v>
       </c>
       <c r="R24">
-        <v>65.135622153778</v>
+        <v>102.059857786961</v>
       </c>
       <c r="S24">
-        <v>3.188816606642114E-05</v>
+        <v>5.328380845551581E-05</v>
       </c>
       <c r="T24">
-        <v>3.188816606642114E-05</v>
+        <v>5.328380845551582E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H25">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>3.877676107237778</v>
+        <v>8.904976938968776</v>
       </c>
       <c r="R25">
-        <v>34.89908496514</v>
+        <v>80.144792450719</v>
       </c>
       <c r="S25">
-        <v>1.708539475230877E-05</v>
+        <v>4.184230570421942E-05</v>
       </c>
       <c r="T25">
-        <v>1.708539475230877E-05</v>
+        <v>4.184230570421943E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H26">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>5.644906409162445</v>
+        <v>10.63241540064267</v>
       </c>
       <c r="R26">
-        <v>50.804157682462</v>
+        <v>95.691738605784</v>
       </c>
       <c r="S26">
-        <v>2.487197271591621E-05</v>
+        <v>4.995911596593759E-05</v>
       </c>
       <c r="T26">
-        <v>2.48719727159162E-05</v>
+        <v>4.99591159659376E-05</v>
       </c>
     </row>
   </sheetData>
